--- a/test123.xlsx
+++ b/test123.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repository\ta-newsX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8083340-48DA-45B9-B30B-97967A86A5B9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="139">
   <si>
     <t>dist</t>
   </si>
@@ -34,6 +40,9 @@
     <t>Turkey</t>
   </si>
   <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
     <t>Istanbul</t>
   </si>
   <si>
@@ -73,6 +82,9 @@
     <t>Suleyman Soylu</t>
   </si>
   <si>
+    <t>PERSON</t>
+  </si>
+  <si>
     <t>Soylu</t>
   </si>
   <si>
@@ -91,6 +103,9 @@
     <t>Interior Minister</t>
   </si>
   <si>
+    <t>ORGANIZATION</t>
+  </si>
+  <si>
     <t>Reina nightclub</t>
   </si>
   <si>
@@ -130,23 +145,305 @@
     <t>nightclub</t>
   </si>
   <si>
-    <t>LOCATION</t>
-  </si>
-  <si>
-    <t>PERSON</t>
-  </si>
-  <si>
-    <t>ORGANIZATION</t>
-  </si>
-  <si>
     <t>NP</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Grand Park</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Istanbul # Turkey</t>
+  </si>
+  <si>
+    <t>Gotham</t>
+  </si>
+  <si>
+    <t>Atlantic</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>River Thames</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Copacabana Beach</t>
+  </si>
+  <si>
+    <t>Moscow River</t>
+  </si>
+  <si>
+    <t>Burj Khalifa</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Makati</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>Auld Lang</t>
+  </si>
+  <si>
+    <t>Ben Von Klemperer</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Robbie Williams</t>
+  </si>
+  <si>
+    <t>Kevin Gener</t>
+  </si>
+  <si>
+    <t>Riley Nolan</t>
+  </si>
+  <si>
+    <t>Boram Brian Kim</t>
+  </si>
+  <si>
+    <t>Nathanael Campbell</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Music Center</t>
+  </si>
+  <si>
+    <t>Los Angeles Police Department</t>
+  </si>
+  <si>
+    <t>New York Police Department</t>
+  </si>
+  <si>
+    <t>NYPD Counterterrorism Bureau</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Arc de Triomphe</t>
+  </si>
+  <si>
+    <t>Kremlin</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Ocean Park</t>
+  </si>
+  <si>
+    <t>Asimina Tzatha</t>
+  </si>
+  <si>
+    <t>Sydney Harbour Bridge</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Peach Bowl</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Fiesta Bowl</t>
+  </si>
+  <si>
+    <t>Glendale</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Nick Saban</t>
+  </si>
+  <si>
+    <t>Deshaun Watson</t>
+  </si>
+  <si>
+    <t>Dabo Swinney</t>
+  </si>
+  <si>
+    <t>Ryan Anderson</t>
+  </si>
+  <si>
+    <t>Jake Browning</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Anthony Averett</t>
+  </si>
+  <si>
+    <t>Adam Griffith</t>
+  </si>
+  <si>
+    <t>Browning</t>
+  </si>
+  <si>
+    <t>Dante Pettis</t>
+  </si>
+  <si>
+    <t>Chris Petersen</t>
+  </si>
+  <si>
+    <t>Bo Scarbrough</t>
+  </si>
+  <si>
+    <t>Scarbrough</t>
+  </si>
+  <si>
+    <t>Saban</t>
+  </si>
+  <si>
+    <t>Watson</t>
+  </si>
+  <si>
+    <t>J. T. Barrett</t>
+  </si>
+  <si>
+    <t>Tyler Durbin</t>
+  </si>
+  <si>
+    <t>Meyer</t>
+  </si>
+  <si>
+    <t>College Football Playoff</t>
+  </si>
+  <si>
+    <t>Georgia Dome</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>University of Phoenix Stadium</t>
+  </si>
+  <si>
+    <t>Huskies</t>
+  </si>
+  <si>
+    <t>Ohio State ( )</t>
+  </si>
+  <si>
+    <t>Tigers</t>
+  </si>
+  <si>
+    <t>Tide</t>
+  </si>
+  <si>
+    <t>Southeastern Conference championships</t>
+  </si>
+  <si>
+    <t>national title game</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>who</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,10 +454,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,7 +465,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -194,13 +488,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -209,6 +517,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -496,14 +812,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,8 +841,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>79</v>
       </c>
@@ -534,15 +862,21 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -551,15 +885,21 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -568,15 +908,21 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -585,15 +931,21 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -602,15 +954,21 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -619,15 +977,21 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -636,15 +1000,21 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -653,15 +1023,21 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -670,15 +1046,21 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -687,15 +1069,21 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -704,15 +1092,21 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -721,15 +1115,21 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -738,15 +1138,21 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -755,15 +1161,21 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -772,32 +1184,44 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9</v>
       </c>
       <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -806,15 +1230,21 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -823,15 +1253,21 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -840,15 +1276,21 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -857,15 +1299,21 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -874,15 +1322,21 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -891,15 +1345,21 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -908,32 +1368,44 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>29</v>
       </c>
       <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
         <v>27</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -942,15 +1414,21 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -959,15 +1437,21 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -976,15 +1460,21 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -993,15 +1483,21 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1010,15 +1506,21 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1027,15 +1529,21 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1044,15 +1552,21 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1061,15 +1575,21 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -1078,15 +1598,21 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1097,8 +1623,2337 @@
       <c r="E35" t="s">
         <v>41</v>
       </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>26</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>27</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>28</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>31</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>32</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>33</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>35</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>29</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>30</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>35</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>38</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>22</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>24</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>27</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>25</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>31</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>37</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>134</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>41</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>174</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>83</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>44</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>63</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>78</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>55</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>78</v>
+      </c>
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>17</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>20</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>25</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>52</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>28</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>56</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>31</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>34</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="b">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120">
+        <v>7</v>
+      </c>
+      <c r="D120" t="b">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>117</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>20</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>55</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="b">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>20</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>56</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123" t="b">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>58</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" t="b">
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>20</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>59</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" t="b">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>121</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="b">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>20</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>69</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="b">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="b">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>27</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>72</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129" t="b">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>27</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130" t="b">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>104</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="b">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132" t="b">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>27</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>70</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="b">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>81</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="b">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>27</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>49</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="b">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>27</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136" t="b">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>41</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>